--- a/registros_diarios/registros_ingreso_2025-11-09.xlsx
+++ b/registros_diarios/registros_ingreso_2025-11-09.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I53"/>
+  <dimension ref="A1:I68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1984,10 +1984,8 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>33013638</t>
-        </is>
+      <c r="A53" t="n">
+        <v>33013638</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -2009,22 +2007,579 @@
           <t>Nomina</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>IRsa</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Personal de Obra</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>VERDE</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>35115812</v>
+      </c>
+      <c r="B54" t="inlineStr"/>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>18:10:33</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Entrada OK</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Nomina Persistente</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Local        NaN
+Local    Sercons
+Name: 124, dtype: object</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>VERDE</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>25271333</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>RAUL CELEDONIO ALDERETE</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>18:10:53</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Entrada OK</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Nomina Persistente</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Local    Sercons
+Local        NaN
+Name: 1, dtype: object</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Personal de Obra</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>VERDE</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>33013638</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Roberto Andres Laforcada</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>18:36:22</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Entrada OK</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Nomina Persistente</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Local    IRsa
+Local     NaN
+Name: 45, dtype: object</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Personal de Obra</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>VERDE</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>35115887</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>No Autorizado</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>18:36:38</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Entrada RECHAZADA</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>ROJO</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>35115887</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>No Autorizado</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>18:37:47</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Entrada RECHAZADA</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>ROJO</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>35115887</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Analia Belen Miño</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>18:41:18</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Entrada OK</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Excepcion</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>VERDE</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>53412356</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>No Autorizado</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>18:42:36</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Entrada RECHAZADA</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>ROJO</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>35115887</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Analia Belen Miño</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>19:01:29</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Entrada OK</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Excepcion</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>CASA</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>VERDE</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>53412356</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Paris Laforcada</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>19:02:40</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Entrada OK</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Excepcion</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>VERDE</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>35115812</v>
+      </c>
+      <c r="B63" t="inlineStr"/>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>19:03:57</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Entrada OK</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Nomina Persistente</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Local        NaN
+Local    Sercons
+Name: 124, dtype: object</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>VERDE</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>53412356</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Paris Laforcada</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>19:04:33</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Entrada OK</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Excepcion</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>VERDE</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>59610581</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Patrick Laforcada</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>19:06:31</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Entrada OK</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Excepcion</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>VERDE</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>33013638</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Roberto Andres Laforcada</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>19:06:51</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Entrada OK</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Nomina Persistente</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Local    IRsa
+Local     NaN
+Name: 45, dtype: object</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Personal de Obra</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>VERDE</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>33013638</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Roberto Andres Laforcada</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>19:07:00</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Entrada OK</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Nomina Persistente</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Local    IRsa
+Local     NaN
+Name: 45, dtype: object</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Personal de Obra</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>VERDE</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>35115887</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Analia Belen Miño</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>19:07:10</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Entrada OK</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Excepcion</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>IRsa</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>Personal de Obra</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>CASA</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
         <is>
           <t>VERDE</t>
         </is>
